--- a/results/mp/logistic/corona/confidence/84/masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,43 +43,70 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>infected</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>recession</t>
@@ -88,93 +115,81 @@
     <t>drop</t>
   </si>
   <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>buying</t>
   </si>
   <si>
@@ -184,337 +199,328 @@
     <t>prices</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>with</t>
+    <t>of</t>
   </si>
   <si>
     <t>on</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>a</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>it</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>'</t>
   </si>
   <si>
     <t>at</t>
@@ -524,12 +530,6 @@
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>'</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,10 +895,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -956,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -1006,13 +1006,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -1056,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -1106,13 +1106,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8321917808219178</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
@@ -1156,13 +1156,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7941176470588235</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1174,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1206,13 +1206,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1224,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1256,13 +1256,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>0.8611111111111112</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1306,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8511749347258486</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1356,13 +1356,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1374,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K11">
-        <v>0.8380281690140845</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L11">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1406,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7567567567567568</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>0.8328981723237598</v>
+        <v>0.84375</v>
       </c>
       <c r="L12">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="M12">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1456,13 +1456,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7368421052631579</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1474,31 +1474,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>0.8205128205128205</v>
+        <v>0.8226950354609929</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1506,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6956521739130435</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1524,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K14">
-        <v>0.8203125</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L14">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1556,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1574,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K15">
-        <v>0.81875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L15">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1606,13 +1606,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1624,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1656,13 +1656,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1674,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K17">
-        <v>0.8181818181818182</v>
+        <v>0.8046875</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6271186440677966</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1724,28 +1724,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K18">
-        <v>0.813953488372093</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
         <v>8</v>
@@ -1756,13 +1756,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L19">
         <v>15</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19">
-        <v>0.8125</v>
-      </c>
-      <c r="L19">
-        <v>13</v>
-      </c>
       <c r="M19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1827,16 +1827,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>0.7931034482758621</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1856,13 +1856,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5949612403100775</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C21">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K21">
-        <v>0.7924528301886793</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1906,13 +1906,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5767195767195767</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="C22">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K22">
-        <v>0.7804878048780488</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1956,13 +1956,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5637583892617449</v>
+        <v>0.5775193798449613</v>
       </c>
       <c r="C23">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="D23">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2006,7 +2006,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C24">
         <v>15</v>
@@ -2024,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K24">
         <v>0.7659574468085106</v>
@@ -2056,13 +2056,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5555555555555556</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2077,16 +2077,16 @@
         <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K25">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2106,13 +2106,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5490196078431373</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2124,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K26">
-        <v>0.7619047619047619</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2156,13 +2156,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5384615384615384</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2174,19 +2174,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2206,13 +2206,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5333333333333333</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2224,19 +2224,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K28">
-        <v>0.75</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2256,13 +2256,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5272727272727272</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K29">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2306,13 +2306,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K30">
         <v>0.7142857142857143</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2356,7 +2356,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4871794871794872</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C31">
         <v>19</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K31">
-        <v>0.7083333333333334</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2406,37 +2406,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4871794871794872</v>
+        <v>0.525</v>
       </c>
       <c r="C32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>19</v>
       </c>
-      <c r="D32">
-        <v>19</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>20</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K32">
-        <v>0.6911764705882353</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L32">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M32">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2456,13 +2456,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4838709677419355</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2474,19 +2474,19 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L33">
         <v>16</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K33">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L33">
-        <v>13</v>
-      </c>
       <c r="M33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2506,13 +2506,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4694444444444444</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C34">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2556,13 +2556,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4533333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2574,19 +2574,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K35">
-        <v>0.6785714285714286</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2606,13 +2606,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4464285714285715</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2624,19 +2624,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K36">
-        <v>0.675</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2656,13 +2656,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4375</v>
+        <v>0.4805555555555556</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2674,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K37">
-        <v>0.6571428571428571</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2706,13 +2706,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4181818181818182</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2724,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2756,38 +2756,38 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3555555555555556</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L39">
         <v>32</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>32</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>58</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L39">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>21</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2806,13 +2806,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3246753246753247</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2824,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K40">
-        <v>0.6190476190476191</v>
+        <v>0.6224489795918368</v>
       </c>
       <c r="L40">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M40">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N40">
         <v>0.99</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2856,13 +2856,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3134920634920635</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C41">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K41">
-        <v>0.6153846153846154</v>
+        <v>0.62</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2906,13 +2906,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2625</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K42">
-        <v>0.6142857142857143</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2956,13 +2956,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.257372654155496</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C43">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2974,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>277</v>
+        <v>34</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K43">
-        <v>0.6067415730337079</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3006,13 +3006,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2549019607843137</v>
+        <v>0.375</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3024,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K44">
-        <v>0.606694560669456</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L44">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3056,13 +3056,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1533333333333333</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K45">
-        <v>0.5925925925925926</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3106,37 +3106,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0880503144654088</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>15</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K46">
-        <v>0.5882352941176471</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L46">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3156,37 +3156,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08547008547008547</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D47">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E47">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K47">
-        <v>0.5833333333333334</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3206,13 +3206,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.06143344709897611</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K48">
-        <v>0.5833333333333334</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3256,37 +3256,37 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.05177111716621254</v>
+        <v>0.2625</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E49">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>348</v>
+        <v>59</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K49">
-        <v>0.574468085106383</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L49">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3306,37 +3306,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03713298791018999</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C50">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1115</v>
+        <v>44</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K50">
-        <v>0.5652173913043478</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3356,37 +3356,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03376018626309663</v>
+        <v>0.228494623655914</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="E51">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>830</v>
+        <v>287</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K51">
-        <v>0.5555555555555556</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3406,37 +3406,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03341985723556132</v>
+        <v>0.15</v>
       </c>
       <c r="C52">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2979</v>
+        <v>255</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K52">
-        <v>0.5483870967741935</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3456,49 +3456,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.03147353361945637</v>
+        <v>0.07508532423208192</v>
       </c>
       <c r="C53">
         <v>22</v>
       </c>
       <c r="D53">
+        <v>22</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>271</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K53">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L53">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>31</v>
-      </c>
-      <c r="E53">
-        <v>0.29</v>
-      </c>
-      <c r="F53">
-        <v>0.71</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>677</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K53">
-        <v>0.54</v>
-      </c>
-      <c r="L53">
-        <v>27</v>
-      </c>
-      <c r="M53">
-        <v>27</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3506,49 +3506,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03102836879432624</v>
+        <v>0.04076086956521739</v>
       </c>
       <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>353</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K54">
+        <v>0.453125</v>
+      </c>
+      <c r="L54">
+        <v>29</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>35</v>
-      </c>
-      <c r="D54">
-        <v>47</v>
-      </c>
-      <c r="E54">
-        <v>0.26</v>
-      </c>
-      <c r="F54">
-        <v>0.74</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1093</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K54">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L54">
-        <v>15</v>
-      </c>
-      <c r="M54">
-        <v>15</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3556,37 +3556,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.02962962962962963</v>
+        <v>0.03284356093344858</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E55">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F55">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>524</v>
+        <v>1119</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K55">
-        <v>0.5333333333333333</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3606,37 +3606,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.02922077922077922</v>
+        <v>0.03276029841063899</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E56">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="F56">
-        <v>0.62</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>598</v>
+        <v>2982</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K56">
-        <v>0.4838709677419355</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3656,37 +3656,37 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.02843803056027165</v>
+        <v>0.03074433656957929</v>
       </c>
       <c r="C57">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E57">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="F57">
-        <v>0.74</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>2289</v>
+        <v>599</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K57">
-        <v>0.4761904761904762</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3706,37 +3706,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.02750118539592224</v>
+        <v>0.03</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D58">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E58">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="F58">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>2051</v>
+        <v>679</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K58">
-        <v>0.4383561643835616</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3756,37 +3756,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.02646720368239356</v>
+        <v>0.02756653992395437</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D59">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E59">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="F59">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>846</v>
+        <v>2046</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K59">
-        <v>0.40625</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L59">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3806,49 +3806,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.01998401278976818</v>
+        <v>0.02664576802507837</v>
       </c>
       <c r="C60">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="F60">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1226</v>
+        <v>621</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K60">
-        <v>0.3974358974358974</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3856,49 +3856,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01928133216476775</v>
+        <v>0.02427745664739884</v>
       </c>
       <c r="C61">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="F61">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>2238</v>
+        <v>844</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K61">
-        <v>0.3823529411764706</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3906,37 +3906,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.01830985915492958</v>
+        <v>0.02217036172695449</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E62">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="F62">
-        <v>0.5700000000000001</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>697</v>
+        <v>838</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K62">
-        <v>0.3559322033898305</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L62">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3956,49 +3956,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0180672268907563</v>
+        <v>0.02209005947323704</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D63">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E63">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="F63">
-        <v>0.4</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2337</v>
+        <v>2302</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K63">
-        <v>0.3442622950819672</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4006,37 +4006,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0167973124300112</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D64">
+        <v>42</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>0.5</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1098</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K64">
+        <v>0.145945945945946</v>
+      </c>
+      <c r="L64">
         <v>27</v>
       </c>
-      <c r="E64">
-        <v>0.44</v>
-      </c>
-      <c r="F64">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>878</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K64">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L64">
-        <v>19</v>
-      </c>
       <c r="M64">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>38</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4056,37 +4056,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01482799525504152</v>
+        <v>0.01576182136602452</v>
       </c>
       <c r="C65">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D65">
-        <v>182</v>
+        <v>61</v>
       </c>
       <c r="E65">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="F65">
-        <v>0.41</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>4983</v>
+        <v>2248</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K65">
-        <v>0.3181818181818182</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4106,49 +4106,49 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01364705882352941</v>
+        <v>0.0155786350148368</v>
       </c>
       <c r="C66">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D66">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E66">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="F66">
-        <v>0.43</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>4192</v>
+        <v>1327</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K66">
-        <v>0.2407407407407407</v>
+        <v>0.125</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4156,37 +4156,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01359223300970874</v>
+        <v>0.01512738853503185</v>
       </c>
       <c r="C67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E67">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="F67">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1524</v>
+        <v>1237</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K67">
-        <v>0.2361111111111111</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4206,37 +4206,37 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.01335311572700297</v>
+        <v>0.01481042654028436</v>
       </c>
       <c r="C68">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>176</v>
+      </c>
+      <c r="E68">
+        <v>0.57</v>
+      </c>
+      <c r="F68">
+        <v>0.43</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>4989</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K68">
+        <v>0.1046511627906977</v>
+      </c>
+      <c r="L68">
         <v>18</v>
       </c>
-      <c r="D68">
-        <v>33</v>
-      </c>
-      <c r="E68">
-        <v>0.45</v>
-      </c>
-      <c r="F68">
-        <v>0.55</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1330</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68">
-        <v>0.1693548387096774</v>
-      </c>
-      <c r="L68">
-        <v>21</v>
-      </c>
       <c r="M68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>103</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4256,49 +4256,49 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.01317647058823529</v>
+        <v>0.01448388412892697</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D69">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="E69">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="F69">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2097</v>
+        <v>4831</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K69">
-        <v>0.1578947368421053</v>
+        <v>0.07951807228915662</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>80</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4306,49 +4306,49 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01244651886425515</v>
+        <v>0.01406799531066823</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E70">
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="F70">
-        <v>0.24</v>
+        <v>0.49</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>2539</v>
+        <v>4205</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K70">
-        <v>0.154639175257732</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="L70">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="M70">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>82</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4356,37 +4356,37 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01225740551583248</v>
+        <v>0.01280558789289872</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D71">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E71">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="F71">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>4835</v>
+        <v>2544</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K71">
-        <v>0.1538461538461539</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>77</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4406,49 +4406,49 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0100096867936713</v>
+        <v>0.01214057507987221</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="E72">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="F72">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>3066</v>
+        <v>1546</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K72">
-        <v>0.1443298969072165</v>
+        <v>0.06954436450839328</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M72">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>83</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4456,817 +4456,889 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.006905481225722918</v>
+        <v>0.01083372585963259</v>
       </c>
       <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>58</v>
+      </c>
+      <c r="E73">
+        <v>0.6</v>
+      </c>
+      <c r="F73">
+        <v>0.4</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2100</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K73">
+        <v>0.06055045871559633</v>
+      </c>
+      <c r="L73">
+        <v>33</v>
+      </c>
+      <c r="M73">
+        <v>35</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.01008827238335435</v>
+      </c>
+      <c r="C74">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>90</v>
+      </c>
+      <c r="E74">
+        <v>0.73</v>
+      </c>
+      <c r="F74">
+        <v>0.27</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2355</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K74">
+        <v>0.05902777777777778</v>
+      </c>
+      <c r="L74">
+        <v>17</v>
+      </c>
+      <c r="M74">
+        <v>18</v>
+      </c>
+      <c r="N74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O74">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.008769080870412472</v>
+      </c>
+      <c r="C75">
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <v>149</v>
+      </c>
+      <c r="E75">
+        <v>0.82</v>
+      </c>
+      <c r="F75">
+        <v>0.18</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>3052</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K75">
+        <v>0.05214723926380368</v>
+      </c>
+      <c r="L75">
+        <v>17</v>
+      </c>
+      <c r="M75">
+        <v>18</v>
+      </c>
+      <c r="N75">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O75">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.006887645286267757</v>
+      </c>
+      <c r="C76">
         <v>16</v>
       </c>
-      <c r="D73">
-        <v>93</v>
-      </c>
-      <c r="E73">
-        <v>0.83</v>
-      </c>
-      <c r="F73">
-        <v>0.17</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>2301</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K73">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="L73">
-        <v>26</v>
-      </c>
-      <c r="M73">
-        <v>26</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="J74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K74">
-        <v>0.1338028169014084</v>
-      </c>
-      <c r="L74">
-        <v>19</v>
-      </c>
-      <c r="M74">
-        <v>20</v>
-      </c>
-      <c r="N74">
-        <v>0.95</v>
-      </c>
-      <c r="O74">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="J75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K75">
-        <v>0.09815950920245399</v>
-      </c>
-      <c r="L75">
-        <v>16</v>
-      </c>
-      <c r="M75">
-        <v>16</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="D76">
+        <v>87</v>
+      </c>
+      <c r="E76">
+        <v>0.82</v>
+      </c>
+      <c r="F76">
+        <v>0.18</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2307</v>
+      </c>
       <c r="J76" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K76">
-        <v>0.08608058608058608</v>
+        <v>0.05157593123209169</v>
       </c>
       <c r="L76">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>499</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K77">
-        <v>0.07958477508650519</v>
+        <v>0.04276315789473684</v>
       </c>
       <c r="L77">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="J78" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K78">
-        <v>0.07817589576547231</v>
+        <v>0.04075235109717868</v>
       </c>
       <c r="L78">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M78">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N78">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
       <c r="O78">
-        <v>0.04000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>283</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="J79" s="1" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="K79">
-        <v>0.07627829002514669</v>
+        <v>0.03843730308758664</v>
       </c>
       <c r="L79">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M79">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="N79">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="O79">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1102</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="J80" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K80">
-        <v>0.0755813953488372</v>
+        <v>0.03828828828828829</v>
       </c>
       <c r="L80">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>159</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="K81">
-        <v>0.06763285024154589</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="M81">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="N81">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="O81">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>386</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K82">
-        <v>0.05763688760806916</v>
+        <v>0.03556910569105691</v>
       </c>
       <c r="L82">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M82">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N82">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O82">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>327</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K83">
-        <v>0.05301204819277108</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="L83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>393</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K84">
-        <v>0.0452418096723869</v>
+        <v>0.03288201160541586</v>
       </c>
       <c r="L84">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M84">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N84">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="O84">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>612</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="K85">
-        <v>0.03862173419159409</v>
+        <v>0.03131524008350731</v>
       </c>
       <c r="L85">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="M85">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="N85">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="O85">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>2539</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="K86">
-        <v>0.03861788617886179</v>
+        <v>0.02985702270815812</v>
       </c>
       <c r="L86">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M86">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="N86">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="O86">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>946</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K87">
-        <v>0.03839732888146911</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N87">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O87">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>576</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K88">
-        <v>0.03666666666666667</v>
+        <v>0.02885682574916759</v>
       </c>
       <c r="L88">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N88">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>867</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="K89">
-        <v>0.03280757097791798</v>
+        <v>0.02770780856423174</v>
       </c>
       <c r="L89">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="M89">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="N89">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="O89">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>3066</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K90">
-        <v>0.03238015138772078</v>
+        <v>0.02726146220570012</v>
       </c>
       <c r="L90">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="M90">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N90">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="O90">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>2301</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="K91">
-        <v>0.03148614609571788</v>
+        <v>0.02598425196850394</v>
       </c>
       <c r="L91">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N91">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="O91">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>769</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="K92">
-        <v>0.03115066751430388</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="L92">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M92">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="N92">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O92">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1524</v>
+        <v>690</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="K93">
-        <v>0.03006329113924051</v>
+        <v>0.02226720647773279</v>
       </c>
       <c r="L93">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="N93">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="O93">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1226</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K94">
-        <v>0.03003875968992248</v>
+        <v>0.02071346375143843</v>
       </c>
       <c r="L94">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M94">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N94">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="O94">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>1001</v>
+        <v>851</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K95">
-        <v>0.02706078268109909</v>
+        <v>0.01984282907662082</v>
       </c>
       <c r="L95">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M95">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="N95">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="O95">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>2337</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="K96">
-        <v>0.02422145328719723</v>
+        <v>0.01974448315911731</v>
       </c>
       <c r="L96">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N96">
-        <v>0.66</v>
+        <v>0.45</v>
       </c>
       <c r="O96">
-        <v>0.34</v>
+        <v>0.55</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="K97">
-        <v>0.02236842105263158</v>
+        <v>0.01908629441624365</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M97">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="N97">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="O97">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>743</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K98">
-        <v>0.02102161100196464</v>
+        <v>0.01876675603217158</v>
       </c>
       <c r="L98">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="M98">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="N98">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="O98">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>4983</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K99">
-        <v>0.02046191247974068</v>
+        <v>0.01870503597122302</v>
       </c>
       <c r="L99">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M99">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="N99">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="O99">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>4835</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K100">
-        <v>0.01905829596412556</v>
+        <v>0.01844532279314888</v>
       </c>
       <c r="L100">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N100">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O100">
-        <v>0.11</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>875</v>
+        <v>745</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="K101">
-        <v>0.01878914405010438</v>
+        <v>0.01841269841269841</v>
       </c>
       <c r="L101">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M101">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="N101">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="O101">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>940</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="K102">
-        <v>0.01826697892271663</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="L102">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="N102">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>4192</v>
+        <v>878</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="K103">
-        <v>0.0182370820668693</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L103">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M103">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="N103">
         <v>0.6</v>
@@ -5278,189 +5350,137 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>969</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K104">
+        <v>0.0147610121836926</v>
+      </c>
+      <c r="L104">
         <v>63</v>
       </c>
-      <c r="K104">
-        <v>0.01630695443645084</v>
-      </c>
-      <c r="L104">
-        <v>34</v>
-      </c>
       <c r="M104">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="N104">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="O104">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>2051</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K105">
-        <v>0.01549295774647887</v>
+        <v>0.01117734724292101</v>
       </c>
       <c r="L105">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M105">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="N105">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
       <c r="O105">
-        <v>0.46</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>2097</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K106">
-        <v>0.01513387660069849</v>
+        <v>0.01099868015838099</v>
       </c>
       <c r="L106">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M106">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N106">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="O106">
-        <v>0.64</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>846</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K107">
-        <v>0.0119205298013245</v>
+        <v>0.01074344649763644</v>
       </c>
       <c r="L107">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M107">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N107">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="O107">
-        <v>0.62</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>2238</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K108">
-        <v>0.01115241635687732</v>
+        <v>0.007984031936127744</v>
       </c>
       <c r="L108">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M108">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="N108">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="O108">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="109" spans="10:17">
-      <c r="J109" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K109">
-        <v>0.009948096885813149</v>
-      </c>
-      <c r="L109">
-        <v>23</v>
-      </c>
-      <c r="M109">
-        <v>90</v>
-      </c>
-      <c r="N109">
-        <v>0.26</v>
-      </c>
-      <c r="O109">
-        <v>0.74</v>
-      </c>
-      <c r="P109" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q109">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="110" spans="10:17">
-      <c r="J110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K110">
-        <v>0.008322237017310254</v>
-      </c>
-      <c r="L110">
-        <v>25</v>
-      </c>
-      <c r="M110">
-        <v>128</v>
-      </c>
-      <c r="N110">
-        <v>0.2</v>
-      </c>
-      <c r="O110">
-        <v>0.8</v>
-      </c>
-      <c r="P110" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <v>2979</v>
+        <v>2982</v>
       </c>
     </row>
   </sheetData>
